--- a/output_report/25 lan_dieu-4096/danh_gia_cheo/4096-danh_gia_cheo.xlsx
+++ b/output_report/25 lan_dieu-4096/danh_gia_cheo/4096-danh_gia_cheo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Phân theo loại" sheetId="1" r:id="rId1"/>
@@ -1147,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,6 +3265,12 @@
         <v>53</v>
       </c>
     </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>AVERAGE(B2,C3,D4,E5,F6,G7,H8,I9,J10,K11,L12,M13,N14,O15,P16,Q17,R18,S19,T20,U21,V22,W23,X24,Y25,Z26)</f>
+        <v>0.38400000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3272,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5392,6 +5398,12 @@
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>AVERAGE(B2,C3,D4,E5,F6,G7,H8,I9,J10,K11,L12,M13,N14,O15,P16,Q17,R18,S19,T20,U21,V22,W23,X24,Y25,Z26)</f>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
